--- a/biology/Botanique/Château_du_Rocher_(Gironde)/Château_du_Rocher_(Gironde).xlsx
+++ b/biology/Botanique/Château_du_Rocher_(Gironde)/Château_du_Rocher_(Gironde).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Rocher_(Gironde)</t>
+          <t>Château_du_Rocher_(Gironde)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château du Rocher est un domaine viticole situé sur la commune de Saint-Étienne-de-Lisse (Gironde) et produit son vin en appellation Saint-Émilion grand cru.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Rocher_(Gironde)</t>
+          <t>Château_du_Rocher_(Gironde)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Château
-Les plus anciennes traces du lieu remontent à l'époque gallo-romaine, avec des vestiges de bâtisses et d'amphores y indiquant la présence d'une villa romaine.
-Les origines du château que l'on aperçoit encore de nos jours furent édifiées sur les bases d'une « chartreuse bordelaise » (ou maison de maître) datée du XVIIe siècle de plain-pied en forme de « U », typique des implantations girondines horizontales[1].
-Propriétaires
-Les archives diocésaines de Bordeaux font état de droits de bancs et de sépulture pour la famille "Durocher" (parfois écrit "du Rocher") au XIIIe siècle en l'Église de Saint-Étienne-de-Lisse.
-La famille "Durocher" est une lignée de notables locaux, viticulteurs, avocats[2], notaires royaux[3], maires de Castillon-la-Bataille et jurats de Saint-Émilion.
-Le château du Rocher est ensuite transmis à la maison de Grailly par alliance[4] en 1731 lors du mariage de Louise du Rocher de Peyrebrune avec Henri de Grailly, sieur de Castillon et de Lavaignac.
-La propriété fut ensuite transmise par alliance aux Monteil en 1801[5] et donna lieu à un morcellement partiel au cours du XIXe siècle pour des raisons d'héritage. Ce morcellement engendrera la création du château Haut-Rocher[6], propriété voisine et toujours cousine à ce jour du château du Rocher[7].
-Elle fut ensuite transmise, par filiation féminine encore, aux Grateloup en 1894[8]. La dernière descendante Grateloup de cette branche épousa Léon de Barthez, Baron de Montfort, en 1930[9]. De cette union naîtront un fils, Stanislas, et une fille, Helmina-Jeanne.
-Disciple d'Émile Peynaud, leur fils, Stanislas de Barthez, Baron de Montfort, modernisa le vignoble et participa à sa renommée au cours du XXe siècle. Cet ancien Premier Jurat de Saint-Émilion[10],[11] et maire honoraire de Saint-Étienne-de-Lisse fit partie des signataires de l'inscription de la Juridiction de Saint-Émilion au Patrimoine Mondial de l'UNESCO en décembre 1999[12],[13]. 
-Anne de Foucauld (désormais Anne de Sercey), née de l'union entre Helmina-Jeanne et le comte de Foucauld de Malembert, est l'actuelle propriétaire et exploitante du château du Rocher depuis 2021[14],[15]. Son mari, Bertrand de Sercey, est membre du conseil d'administration des Vignerons Bio Nouvelle Aquitaine[16] et fut directeur de la communication de ce même syndicat[17].
+          <t>Château</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciennes traces du lieu remontent à l'époque gallo-romaine, avec des vestiges de bâtisses et d'amphores y indiquant la présence d'une villa romaine.
+Les origines du château que l'on aperçoit encore de nos jours furent édifiées sur les bases d'une « chartreuse bordelaise » (ou maison de maître) datée du XVIIe siècle de plain-pied en forme de « U », typique des implantations girondines horizontales.
 </t>
         </is>
       </c>
@@ -536,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Rocher_(Gironde)</t>
+          <t>Château_du_Rocher_(Gironde)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,15 +560,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Terroir</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La propriété, d'un seul tenant et s'étalant sur plus de 17 hectares, se caractérise par des parcelles qui encerclent le corps central, illustrant ainsi une configuration typiquement régionale[réf. nécessaire].
-L'encépagement est composé à 70 % de merlot, 15 % de cabernet franc et 15 % de cabernet sauvignon[18].
-Ferrugineux à de nombreux endroits, le sol et les sous-sols sont à dominante argilo-calcaire. Ceci offre un équilibre hydrique optimal grâce à leurs capacités de drainage et de rétention d'eau, tout en favorisant une maturation homogène des raisins grâce à leurs propriétés de régulation thermique. Ces caractéristiques contribuent à la complexité aromatique et à la finesse des vins de la région, renforçant ainsi leur élégance et leur potentiel de vieillissement.
-L'âge moyen des vignes est de 35 ans environ ; elles font l'objet d'une culture raisonnée et certifiée "agriculture biologique" depuis le millésime 2012. Les propriétaires du domaine promeuvent la culture du vin biologique depuis de nombreuses années[19],[14],[20].
+          <t>Propriétaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archives diocésaines de Bordeaux font état de droits de bancs et de sépulture pour la famille "Durocher" (parfois écrit "du Rocher") au XIIIe siècle en l'Église de Saint-Étienne-de-Lisse.
+La famille "Durocher" est une lignée de notables locaux, viticulteurs, avocats, notaires royaux, maires de Castillon-la-Bataille et jurats de Saint-Émilion.
+Le château du Rocher est ensuite transmis à la maison de Grailly par alliance en 1731 lors du mariage de Louise du Rocher de Peyrebrune avec Henri de Grailly, sieur de Castillon et de Lavaignac.
+La propriété fut ensuite transmise par alliance aux Monteil en 1801 et donna lieu à un morcellement partiel au cours du XIXe siècle pour des raisons d'héritage. Ce morcellement engendrera la création du château Haut-Rocher, propriété voisine et toujours cousine à ce jour du château du Rocher.
+Elle fut ensuite transmise, par filiation féminine encore, aux Grateloup en 1894. La dernière descendante Grateloup de cette branche épousa Léon de Barthez, Baron de Montfort, en 1930. De cette union naîtront un fils, Stanislas, et une fille, Helmina-Jeanne.
+Disciple d'Émile Peynaud, leur fils, Stanislas de Barthez, Baron de Montfort, modernisa le vignoble et participa à sa renommée au cours du XXe siècle. Cet ancien Premier Jurat de Saint-Émilion, et maire honoraire de Saint-Étienne-de-Lisse fit partie des signataires de l'inscription de la Juridiction de Saint-Émilion au Patrimoine Mondial de l'UNESCO en décembre 1999,. 
+Anne de Foucauld (désormais Anne de Sercey), née de l'union entre Helmina-Jeanne et le comte de Foucauld de Malembert, est l'actuelle propriétaire et exploitante du château du Rocher depuis 2021,. Son mari, Bertrand de Sercey, est membre du conseil d'administration des Vignerons Bio Nouvelle Aquitaine et fut directeur de la communication de ce même syndicat.
 </t>
         </is>
       </c>
@@ -570,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Rocher_(Gironde)</t>
+          <t>Château_du_Rocher_(Gironde)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,13 +603,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vin</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afin de produire son vin, le château du Rocher allie méthodes traditionnelles et techniques de pointe dans la culture de la vigne, la vinification (conduites avec chevaux de traits, respect des rythmes lunaires, tri optique des baies, macération à froid pré et post-fermentaire) et l'élevage.
-Dans les chais, l'élevage se fait à 100 % en barriques et dure au moins 12 mois. La mise en bouteille de chaque millésime se fait au château.
+          <t>Terroir</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La propriété, d'un seul tenant et s'étalant sur plus de 17 hectares, se caractérise par des parcelles qui encerclent le corps central, illustrant ainsi une configuration typiquement régionale[réf. nécessaire].
+L'encépagement est composé à 70 % de merlot, 15 % de cabernet franc et 15 % de cabernet sauvignon.
+Ferrugineux à de nombreux endroits, le sol et les sous-sols sont à dominante argilo-calcaire. Ceci offre un équilibre hydrique optimal grâce à leurs capacités de drainage et de rétention d'eau, tout en favorisant une maturation homogène des raisins grâce à leurs propriétés de régulation thermique. Ces caractéristiques contribuent à la complexité aromatique et à la finesse des vins de la région, renforçant ainsi leur élégance et leur potentiel de vieillissement.
+L'âge moyen des vignes est de 35 ans environ ; elles font l'objet d'une culture raisonnée et certifiée "agriculture biologique" depuis le millésime 2012. Les propriétaires du domaine promeuvent la culture du vin biologique depuis de nombreuses années.
 </t>
         </is>
       </c>
@@ -602,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Rocher_(Gironde)</t>
+          <t>Château_du_Rocher_(Gironde)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,13 +639,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Vin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin de produire son vin, le château du Rocher allie méthodes traditionnelles et techniques de pointe dans la culture de la vigne, la vinification (conduites avec chevaux de traits, respect des rythmes lunaires, tri optique des baies, macération à froid pré et post-fermentaire) et l'élevage.
+Dans les chais, l'élevage se fait à 100 % en barriques et dure au moins 12 mois. La mise en bouteille de chaque millésime se fait au château.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_du_Rocher_(Gironde)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_du_Rocher_(Gironde)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château du Rocher apparait à plusieurs reprises dans le film "Coluche, L'histoire d'un mec" réalisé par Antoine de Caunes en 2008.
-En 2024, le château du Rocher est la première propriété au monde à créer son propre assistant intelligence artificielle de type "GPT" via le site d'OpenAI : RocherGPT est une IA pouvant répondre à des questions précises sur le domaine à propos des climats des dix derniers millésimes ou encore des choix de culture ou de vinification faits par l'exploitation[21].
+En 2024, le château du Rocher est la première propriété au monde à créer son propre assistant intelligence artificielle de type "GPT" via le site d'OpenAI : RocherGPT est une IA pouvant répondre à des questions précises sur le domaine à propos des climats des dix derniers millésimes ou encore des choix de culture ou de vinification faits par l'exploitation.
 </t>
         </is>
       </c>
